--- a/biology/Zoologie/Dipsas_pakaraima/Dipsas_pakaraima.xlsx
+++ b/biology/Zoologie/Dipsas_pakaraima/Dipsas_pakaraima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas pakaraima  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas pakaraima  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guyana[1].  Elle se rencontre sur le mont Ayanganna dans la sierra de Pacaraima.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guyana.  Elle se rencontre sur le mont Ayanganna dans la sierra de Pacaraima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plus grand paratype de Dipsas pakaraima décrit dans la publication originale[2], un mâle adulte, mesure 794 mm dont 237 mm pour la queue. La teinte générale de ce serpent varie du crème au brun clair avec des taches brunes à brun très foncé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus grand paratype de Dipsas pakaraima décrit dans la publication originale, un mâle adulte, mesure 794 mm dont 237 mm pour la queue. La teinte générale de ce serpent varie du crème au brun clair avec des taches brunes à brun très foncé.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce fait référence au lieu de sa découverte, la sierra de Pakaraima.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Macculloch &amp; Lathrop, 2004 : A new species of Dipsas (Squamata: Colubridae) from Guyana. Revista de Biología Tropical, vol. 52, no 1, p. 239-247 (texte intégral).</t>
         </is>
